--- a/Results/Top50_LSTM_DTW_KNN_HMM.xlsx
+++ b/Results/Top50_LSTM_DTW_KNN_HMM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mhdella\iHelm\TSA\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hhse-my.sharepoint.com/personal/mohamed_abuella_hh_se/Documents/iHelm/CTs4_TSA/TSA_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF0CE25-A088-4D90-A664-14736A0A1433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1CF0CE25-A088-4D90-A664-14736A0A1433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50C6C890-19FF-44F3-95AF-75A2CFC306A2}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{58FFAE2C-B66C-4842-82C4-6FC33B65541F}"/>
+    <workbookView xWindow="28680" yWindow="-5580" windowWidth="38640" windowHeight="21240" xr2:uid="{58FFAE2C-B66C-4842-82C4-6FC33B65541F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,15 +65,6 @@
     <t>avg</t>
   </si>
   <si>
-    <t>eff_pred_LSTM</t>
-  </si>
-  <si>
-    <t>eff_diff_LSTM</t>
-  </si>
-  <si>
-    <t>eff_gain_LSTM</t>
-  </si>
-  <si>
     <t>eff_pred_DTW</t>
   </si>
   <si>
@@ -102,6 +93,15 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>eff_pred_LSTM</t>
+  </si>
+  <si>
+    <t>eff_diff_LSTM</t>
+  </si>
+  <si>
+    <t>eff_gain_LSTM</t>
   </si>
 </sst>
 </file>
@@ -133,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,11 +141,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -156,6 +171,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,20 +492,23 @@
   <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H165"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="14" width="8.83984375" style="1"/>
-    <col min="17" max="17" width="8.83984375" customWidth="1"/>
-    <col min="18" max="18" width="8.83984375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="5" width="8.81640625" style="1"/>
+    <col min="6" max="8" width="8.7265625"/>
+    <col min="9" max="14" width="8.81640625" style="1"/>
+    <col min="15" max="16" width="8.7265625"/>
+    <col min="17" max="17" width="8.81640625" customWidth="1"/>
+    <col min="18" max="18" width="8.81640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -501,44 +522,44 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -555,13 +576,13 @@
         <v>0.60628013316313045</v>
       </c>
       <c r="F2">
-        <v>0.61</v>
+        <v>0.62446233263075857</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.8182199467628109E-2</v>
       </c>
       <c r="H2">
-        <v>-0.09</v>
+        <v>2.9989766236882232</v>
       </c>
       <c r="I2">
         <v>0.62067515840861975</v>
@@ -591,7 +612,7 @@
         <v>1.7470680130568961</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -608,13 +629,13 @@
         <v>0.69686110945416058</v>
       </c>
       <c r="F3">
-        <v>0.68</v>
+        <v>0.69707369307627998</v>
       </c>
       <c r="G3">
-        <v>-0.02</v>
+        <v>2.1258362211939999E-4</v>
       </c>
       <c r="H3">
-        <v>-3.1</v>
+        <v>3.05058811914347E-2</v>
       </c>
       <c r="I3">
         <v>0.6896757546657013</v>
@@ -644,7 +665,7 @@
         <v>1.5224475099055139</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -661,13 +682,13 @@
         <v>0.56278524678956354</v>
       </c>
       <c r="F4">
-        <v>0.59</v>
+        <v>0.61486906747075898</v>
       </c>
       <c r="G4">
-        <v>0.02</v>
+        <v>5.2083820681195443E-2</v>
       </c>
       <c r="H4">
-        <v>4.29</v>
+        <v>9.2546528144279154</v>
       </c>
       <c r="I4">
         <v>0.61259751381913419</v>
@@ -697,7 +718,7 @@
         <v>14.91008602825309</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -714,13 +735,13 @@
         <v>0.53730440121598377</v>
       </c>
       <c r="F5">
-        <v>0.52</v>
+        <v>0.57833958556423326</v>
       </c>
       <c r="G5">
-        <v>-0.01</v>
+        <v>4.1035184348249487E-2</v>
       </c>
       <c r="H5">
-        <v>-2.61</v>
+        <v>7.637232126776178</v>
       </c>
       <c r="I5">
         <v>0.55814915689503541</v>
@@ -750,7 +771,7 @@
         <v>15.39409447576169</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -767,13 +788,13 @@
         <v>0.61114526747637654</v>
       </c>
       <c r="F6">
-        <v>0.54</v>
+        <v>0.57864668177949641</v>
       </c>
       <c r="G6">
-        <v>-7.0000000000000007E-2</v>
+        <v>-3.2498585696880133E-2</v>
       </c>
       <c r="H6">
-        <v>-10.98</v>
+        <v>-5.3176531712464499</v>
       </c>
       <c r="I6">
         <v>0.61636642118711094</v>
@@ -803,7 +824,7 @@
         <v>4.2226301228379999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -820,13 +841,13 @@
         <v>0.66081405103018143</v>
       </c>
       <c r="F7">
-        <v>0.66</v>
+        <v>0.66087038348458194</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5.6332454400509491E-5</v>
       </c>
       <c r="H7">
-        <v>-0.4</v>
+        <v>8.5247059006523171E-3</v>
       </c>
       <c r="I7">
         <v>0.66226945961173289</v>
@@ -856,7 +877,7 @@
         <v>0.65295994203725916</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -873,13 +894,13 @@
         <v>0.67915082677939942</v>
       </c>
       <c r="F8">
-        <v>0.67</v>
+        <v>0.68217900667932008</v>
       </c>
       <c r="G8">
-        <v>-0.01</v>
+        <v>3.0281798999206582E-3</v>
       </c>
       <c r="H8">
-        <v>-1.1000000000000001</v>
+        <v>0.44587737811946532</v>
       </c>
       <c r="I8">
         <v>0.60235967658385392</v>
@@ -909,7 +930,7 @@
         <v>-5.4370622972618632</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -926,13 +947,13 @@
         <v>0.58882509017302442</v>
       </c>
       <c r="F9">
-        <v>0.61</v>
+        <v>0.61416527053107461</v>
       </c>
       <c r="G9">
-        <v>0.02</v>
+        <v>2.5340180358050191E-2</v>
       </c>
       <c r="H9">
-        <v>2.75</v>
+        <v>4.3035157266488184</v>
       </c>
       <c r="I9">
         <v>0.5935928912906665</v>
@@ -962,7 +983,7 @@
         <v>16.935000556440901</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -979,13 +1000,13 @@
         <v>0.4844576980906341</v>
       </c>
       <c r="F10">
-        <v>0.36</v>
+        <v>0.34913241861357341</v>
       </c>
       <c r="G10">
-        <v>-0.12</v>
+        <v>-0.13532527947706069</v>
       </c>
       <c r="H10">
-        <v>-25.55</v>
+        <v>-27.93335311017054</v>
       </c>
       <c r="I10">
         <v>0.45376460558661791</v>
@@ -1015,7 +1036,7 @@
         <v>5.6014344705862733</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1032,13 +1053,13 @@
         <v>0.64462036753921192</v>
       </c>
       <c r="F11">
-        <v>0.66</v>
+        <v>0.66768117242990543</v>
       </c>
       <c r="G11">
-        <v>0.02</v>
+        <v>2.3060804890693509E-2</v>
       </c>
       <c r="H11">
-        <v>2.65</v>
+        <v>3.5774241789359431</v>
       </c>
       <c r="I11">
         <v>0.66285723580485412</v>
@@ -1068,7 +1089,7 @@
         <v>3.556408070319518</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1085,13 +1106,13 @@
         <v>0.53279770809065452</v>
       </c>
       <c r="F12">
-        <v>0.48</v>
+        <v>0.52475545544707147</v>
       </c>
       <c r="G12">
-        <v>-0.05</v>
+        <v>-8.0422526435830477E-3</v>
       </c>
       <c r="H12">
-        <v>-9.06</v>
+        <v>-1.5094382955218479</v>
       </c>
       <c r="I12">
         <v>0.54644974061640506</v>
@@ -1121,7 +1142,7 @@
         <v>-10.604414025571231</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1138,13 +1159,13 @@
         <v>0.69301574150564305</v>
       </c>
       <c r="F13">
-        <v>0.69</v>
+        <v>0.70287858656349589</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>9.8628450578528426E-3</v>
       </c>
       <c r="H13">
-        <v>-0.05</v>
+        <v>1.4231776375562359</v>
       </c>
       <c r="I13">
         <v>0.70104183190842995</v>
@@ -1174,7 +1195,7 @@
         <v>1.103155566311373</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1191,13 +1212,13 @@
         <v>0.67092714588436642</v>
       </c>
       <c r="F14">
-        <v>0.67</v>
+        <v>0.66953289773818225</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>-1.3942481461841629E-3</v>
       </c>
       <c r="H14">
-        <v>-0.04</v>
+        <v>-0.20780917194017659</v>
       </c>
       <c r="I14">
         <v>0.6665095728942374</v>
@@ -1227,7 +1248,7 @@
         <v>2.0852971616336289</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1244,13 +1265,13 @@
         <v>0.64979060438806702</v>
       </c>
       <c r="F15">
-        <v>0.66</v>
+        <v>0.65405515671616343</v>
       </c>
       <c r="G15">
-        <v>0.01</v>
+        <v>4.2645523280964159E-3</v>
       </c>
       <c r="H15">
-        <v>1.92</v>
+        <v>0.65629639753140323</v>
       </c>
       <c r="I15">
         <v>0.653505277767502</v>
@@ -1280,7 +1301,7 @@
         <v>4.3808745166848846</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1297,13 +1318,13 @@
         <v>0.62713595609170447</v>
       </c>
       <c r="F16">
-        <v>0.62</v>
+        <v>0.62370520486365388</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>-3.4307512280505881E-3</v>
       </c>
       <c r="H16">
-        <v>-0.65</v>
+        <v>-0.54705063467113946</v>
       </c>
       <c r="I16">
         <v>0.62164477561096387</v>
@@ -1333,7 +1354,7 @@
         <v>-0.17021855241095851</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1350,13 +1371,13 @@
         <v>0.63162649371471136</v>
       </c>
       <c r="F17">
-        <v>0.62</v>
+        <v>0.63663013072736629</v>
       </c>
       <c r="G17">
-        <v>-0.01</v>
+        <v>5.0036370126549379E-3</v>
       </c>
       <c r="H17">
-        <v>-1.17</v>
+        <v>0.7921828901171688</v>
       </c>
       <c r="I17">
         <v>0.61908291661018988</v>
@@ -1386,7 +1407,7 @@
         <v>5.1634176369180853</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1403,13 +1424,13 @@
         <v>0.56082710971394678</v>
       </c>
       <c r="F18">
-        <v>0.54</v>
+        <v>0.56637264355173689</v>
       </c>
       <c r="G18">
-        <v>-0.02</v>
+        <v>5.5455338377901056E-3</v>
       </c>
       <c r="H18">
-        <v>-3.87</v>
+        <v>0.98881344031650675</v>
       </c>
       <c r="I18">
         <v>0.55319565075882693</v>
@@ -1439,7 +1460,7 @@
         <v>20.82917478692146</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1456,13 +1477,13 @@
         <v>0.60480736001534385</v>
       </c>
       <c r="F19">
-        <v>0.6</v>
+        <v>0.60207210552132162</v>
       </c>
       <c r="G19">
-        <v>-0.01</v>
+        <v>-2.7352544940222319E-3</v>
       </c>
       <c r="H19">
-        <v>-1.34</v>
+        <v>-0.45225218389419719</v>
       </c>
       <c r="I19">
         <v>0.60656218314231125</v>
@@ -1492,7 +1513,7 @@
         <v>-1.093705192340894</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1509,13 +1530,13 @@
         <v>0.57695643811173392</v>
       </c>
       <c r="F20">
-        <v>0.6</v>
+        <v>0.56596194769780372</v>
       </c>
       <c r="G20">
-        <v>0.02</v>
+        <v>-1.099449041393019E-2</v>
       </c>
       <c r="H20">
-        <v>3.23</v>
+        <v>-1.9056014783218329</v>
       </c>
       <c r="I20">
         <v>0.56141764245335279</v>
@@ -1545,7 +1566,7 @@
         <v>-3.3886839143970682</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1562,13 +1583,13 @@
         <v>0.50658417295366998</v>
       </c>
       <c r="F21">
-        <v>0.45</v>
+        <v>0.50513438146893996</v>
       </c>
       <c r="G21">
-        <v>-0.06</v>
+        <v>-1.449791484730012E-3</v>
       </c>
       <c r="H21">
-        <v>-11.06</v>
+        <v>-0.28618965260539309</v>
       </c>
       <c r="I21">
         <v>0.53802327986537368</v>
@@ -1598,7 +1619,7 @@
         <v>2.323827619749645</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1615,13 +1636,13 @@
         <v>0.64147840943348122</v>
       </c>
       <c r="F22">
-        <v>0.64</v>
+        <v>0.64364169056614706</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.1632811326658401E-3</v>
       </c>
       <c r="H22">
-        <v>-0.56999999999999995</v>
+        <v>0.33723366224848178</v>
       </c>
       <c r="I22">
         <v>0.65043581290499863</v>
@@ -1651,7 +1672,7 @@
         <v>2.1611826946452428</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1668,13 +1689,13 @@
         <v>0.56512828828382089</v>
       </c>
       <c r="F23">
-        <v>0.54</v>
+        <v>0.55728501755968907</v>
       </c>
       <c r="G23">
-        <v>-0.02</v>
+        <v>-7.8432707241318234E-3</v>
       </c>
       <c r="H23">
-        <v>-4.2300000000000004</v>
+        <v>-1.3878743794528909</v>
       </c>
       <c r="I23">
         <v>0.56551848427035845</v>
@@ -1704,7 +1725,7 @@
         <v>19.793043090979591</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1721,13 +1742,13 @@
         <v>0.53411248805065914</v>
       </c>
       <c r="F24">
-        <v>0.49</v>
+        <v>0.53174167021750618</v>
       </c>
       <c r="G24">
-        <v>-0.04</v>
+        <v>-2.370817833152961E-3</v>
       </c>
       <c r="H24">
-        <v>-8.2799999999999994</v>
+        <v>-0.44387987290948627</v>
       </c>
       <c r="I24">
         <v>0.56448584667263346</v>
@@ -1757,7 +1778,7 @@
         <v>18.776619106030608</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1774,13 +1795,13 @@
         <v>0.54422022671141979</v>
       </c>
       <c r="F25">
-        <v>0.51</v>
+        <v>0.5439161708128929</v>
       </c>
       <c r="G25">
-        <v>-0.03</v>
+        <v>-3.040558985268893E-4</v>
       </c>
       <c r="H25">
-        <v>-5.92</v>
+        <v>-5.5870010632316891E-2</v>
       </c>
       <c r="I25">
         <v>0.58823238655141696</v>
@@ -1810,7 +1831,7 @@
         <v>17.505857759117099</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1827,13 +1848,13 @@
         <v>0.6139539399302445</v>
       </c>
       <c r="F26">
-        <v>0.57999999999999996</v>
+        <v>0.60205381502839972</v>
       </c>
       <c r="G26">
-        <v>-0.03</v>
+        <v>-1.1900124901844779E-2</v>
       </c>
       <c r="H26">
-        <v>-5.43</v>
+        <v>-1.938276494030942</v>
       </c>
       <c r="I26">
         <v>0.63473862835191608</v>
@@ -1863,7 +1884,7 @@
         <v>9.3012853096274277</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1880,13 +1901,13 @@
         <v>0.53060334069055937</v>
       </c>
       <c r="F27">
-        <v>0.49</v>
+        <v>0.56891247380519372</v>
       </c>
       <c r="G27">
-        <v>-0.04</v>
+        <v>3.8309133114634353E-2</v>
       </c>
       <c r="H27">
-        <v>-7.15</v>
+        <v>7.2199193214231423</v>
       </c>
       <c r="I27">
         <v>0.59773442292757983</v>
@@ -1916,7 +1937,7 @@
         <v>23.247659617318369</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1933,13 +1954,13 @@
         <v>0.599972662055132</v>
       </c>
       <c r="F28">
-        <v>0.56999999999999995</v>
+        <v>0.56109706895955558</v>
       </c>
       <c r="G28">
-        <v>-0.03</v>
+        <v>-3.8875593095576422E-2</v>
       </c>
       <c r="H28">
-        <v>-5.0199999999999996</v>
+        <v>-6.4795607457201294</v>
       </c>
       <c r="I28">
         <v>0.53674406409388076</v>
@@ -1969,7 +1990,7 @@
         <v>1.6918362025945279</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1986,13 +2007,13 @@
         <v>0.65143308390958066</v>
       </c>
       <c r="F29">
-        <v>0.63</v>
+        <v>0.64139241223895938</v>
       </c>
       <c r="G29">
-        <v>-0.02</v>
+        <v>-1.004067167062128E-2</v>
       </c>
       <c r="H29">
-        <v>-3.69</v>
+        <v>-1.541320500697035</v>
       </c>
       <c r="I29">
         <v>0.65469170893520867</v>
@@ -2022,7 +2043,7 @@
         <v>-6.1241724397762178</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2039,13 +2060,13 @@
         <v>0.6638677373849764</v>
       </c>
       <c r="F30">
-        <v>0.65</v>
+        <v>0.68056968169144016</v>
       </c>
       <c r="G30">
-        <v>-0.01</v>
+        <v>1.6701944306463771E-2</v>
       </c>
       <c r="H30">
-        <v>-1.4</v>
+        <v>2.5158541929231188</v>
       </c>
       <c r="I30">
         <v>0.686573989948426</v>
@@ -2075,7 +2096,7 @@
         <v>6.1824674519421512</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2092,13 +2113,13 @@
         <v>0.56378082252094619</v>
       </c>
       <c r="F31">
-        <v>0.53</v>
+        <v>0.54304038646770514</v>
       </c>
       <c r="G31">
-        <v>-0.03</v>
+        <v>-2.0740436053241051E-2</v>
       </c>
       <c r="H31">
-        <v>-5.83</v>
+        <v>-3.6788119114268878</v>
       </c>
       <c r="I31">
         <v>0.59049933629429507</v>
@@ -2128,7 +2149,7 @@
         <v>15.274912980097911</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2145,13 +2166,13 @@
         <v>0.59354568897725146</v>
       </c>
       <c r="F32">
-        <v>0.61</v>
+        <v>0.64395941914053723</v>
       </c>
       <c r="G32">
-        <v>0.01</v>
+        <v>5.0413730163285757E-2</v>
       </c>
       <c r="H32">
-        <v>2.46</v>
+        <v>8.4936561918518034</v>
       </c>
       <c r="I32">
         <v>0.60556715042746001</v>
@@ -2181,7 +2202,7 @@
         <v>-4.2323973006289783</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2198,13 +2219,13 @@
         <v>0.63202226226738967</v>
       </c>
       <c r="F33">
-        <v>0.62</v>
+        <v>0.62167882205974911</v>
       </c>
       <c r="G33">
-        <v>-0.02</v>
+        <v>-1.0343440207640549E-2</v>
       </c>
       <c r="H33">
-        <v>-2.56</v>
+        <v>-1.636562637925649</v>
       </c>
       <c r="I33">
         <v>0.6130147378889178</v>
@@ -2234,7 +2255,7 @@
         <v>2.0398123485358228</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2251,13 +2272,13 @@
         <v>0.56590332826740342</v>
       </c>
       <c r="F34">
-        <v>0.53</v>
+        <v>0.57825779778861364</v>
       </c>
       <c r="G34">
-        <v>-0.03</v>
+        <v>1.2354469521210221E-2</v>
       </c>
       <c r="H34">
-        <v>-6.12</v>
+        <v>2.1831413430691868</v>
       </c>
       <c r="I34">
         <v>0.57148593770786005</v>
@@ -2287,7 +2308,7 @@
         <v>5.6449426581026128</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2304,13 +2325,13 @@
         <v>0.63071289377913609</v>
       </c>
       <c r="F35">
-        <v>0.62</v>
+        <v>0.64498944562744787</v>
       </c>
       <c r="G35">
-        <v>-0.01</v>
+        <v>1.427655184831178E-2</v>
       </c>
       <c r="H35">
-        <v>-1.02</v>
+        <v>2.26355794992058</v>
       </c>
       <c r="I35">
         <v>0.64406597892375361</v>
@@ -2340,7 +2361,7 @@
         <v>8.1147465467766597</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2357,13 +2378,13 @@
         <v>0.64716472371618994</v>
       </c>
       <c r="F36">
-        <v>0.65</v>
+        <v>0.65870183315736275</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1.153710944117281E-2</v>
       </c>
       <c r="H36">
-        <v>0.01</v>
+        <v>1.782716056419716</v>
       </c>
       <c r="I36">
         <v>0.63903330389956414</v>
@@ -2393,7 +2414,7 @@
         <v>1.19637809972967</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2410,13 +2431,13 @@
         <v>0.59858041234843973</v>
       </c>
       <c r="F37">
-        <v>0.55000000000000004</v>
+        <v>0.58868047442270588</v>
       </c>
       <c r="G37">
-        <v>-0.05</v>
+        <v>-9.8999379257338482E-3</v>
       </c>
       <c r="H37">
-        <v>-8.6199999999999992</v>
+        <v>-1.6539027541668021</v>
       </c>
       <c r="I37">
         <v>0.60649415981161092</v>
@@ -2446,7 +2467,7 @@
         <v>3.3553693704929088</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2463,13 +2484,13 @@
         <v>0.55396471242833201</v>
       </c>
       <c r="F38">
-        <v>0.54</v>
+        <v>0.57351606673196143</v>
       </c>
       <c r="G38">
-        <v>-0.01</v>
+        <v>1.955135430362942E-2</v>
       </c>
       <c r="H38">
-        <v>-2.64</v>
+        <v>3.529350130972257</v>
       </c>
       <c r="I38">
         <v>0.59475079403628062</v>
@@ -2499,7 +2520,7 @@
         <v>5.5403850239006296</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2516,13 +2537,13 @@
         <v>0.61142702943566496</v>
       </c>
       <c r="F39">
-        <v>0.62</v>
+        <v>0.65967697476854736</v>
       </c>
       <c r="G39">
-        <v>0.01</v>
+        <v>4.8249945332882398E-2</v>
       </c>
       <c r="H39">
-        <v>2.1800000000000002</v>
+        <v>7.8913661009419478</v>
       </c>
       <c r="I39">
         <v>0.60763141847331625</v>
@@ -2552,7 +2573,7 @@
         <v>15.34191224099056</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2569,13 +2590,13 @@
         <v>0.59174827850693612</v>
       </c>
       <c r="F40">
-        <v>0.56000000000000005</v>
+        <v>0.60000141320405176</v>
       </c>
       <c r="G40">
-        <v>-0.03</v>
+        <v>8.2531346971156383E-3</v>
       </c>
       <c r="H40">
-        <v>-4.57</v>
+        <v>1.394703625997773</v>
       </c>
       <c r="I40">
         <v>0.61767957553559993</v>
@@ -2605,7 +2626,7 @@
         <v>3.7870675267856271</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2622,13 +2643,13 @@
         <v>0.52595334555044859</v>
       </c>
       <c r="F41">
-        <v>0.51</v>
+        <v>0.53260934246201685</v>
       </c>
       <c r="G41">
-        <v>-0.02</v>
+        <v>6.6559969115682627E-3</v>
       </c>
       <c r="H41">
-        <v>-3.43</v>
+        <v>1.265510898994715</v>
       </c>
       <c r="I41">
         <v>0.56226224329834307</v>
@@ -2658,7 +2679,7 @@
         <v>22.487606723686369</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -2675,13 +2696,13 @@
         <v>0.58770320432907563</v>
       </c>
       <c r="F42">
-        <v>0.59</v>
+        <v>0.59714639370276679</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>9.4431893736911521E-3</v>
       </c>
       <c r="H42">
-        <v>0.76</v>
+        <v>1.6067956247527251</v>
       </c>
       <c r="I42">
         <v>0.57413899682827663</v>
@@ -2711,7 +2732,7 @@
         <v>-12.656482601984729</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -2728,13 +2749,13 @@
         <v>0.58552429504725556</v>
       </c>
       <c r="F43">
-        <v>0.56000000000000005</v>
+        <v>0.58346842812189581</v>
       </c>
       <c r="G43">
-        <v>-0.02</v>
+        <v>-2.055866925359751E-3</v>
       </c>
       <c r="H43">
-        <v>-3.65</v>
+        <v>-0.35111556305171399</v>
       </c>
       <c r="I43">
         <v>0.59551891655546263</v>
@@ -2764,7 +2785,7 @@
         <v>14.030568483840391</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -2781,13 +2802,13 @@
         <v>0.63962319153374991</v>
       </c>
       <c r="F44">
-        <v>0.64</v>
+        <v>0.6390910572772468</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>-5.3213425650311397E-4</v>
       </c>
       <c r="H44">
-        <v>-0.43</v>
+        <v>-8.3194959711687652E-2</v>
       </c>
       <c r="I44">
         <v>0.63888698394580823</v>
@@ -2817,7 +2838,7 @@
         <v>0.76169084405809329</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -2834,13 +2855,13 @@
         <v>0.63875869357114901</v>
       </c>
       <c r="F45">
-        <v>0.63</v>
+        <v>0.64250816684984269</v>
       </c>
       <c r="G45">
-        <v>-0.01</v>
+        <v>3.749473278693682E-3</v>
       </c>
       <c r="H45">
-        <v>-1.62</v>
+        <v>0.58699369831371895</v>
       </c>
       <c r="I45">
         <v>0.64433154542899551</v>
@@ -2870,7 +2891,7 @@
         <v>1.0314232180091309</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -2887,13 +2908,13 @@
         <v>0.65016736698880273</v>
       </c>
       <c r="F46">
-        <v>0.64</v>
+        <v>0.66051342411568958</v>
       </c>
       <c r="G46">
-        <v>-0.01</v>
+        <v>1.0346057126886851E-2</v>
       </c>
       <c r="H46">
-        <v>-1.38</v>
+        <v>1.591291358531846</v>
       </c>
       <c r="I46">
         <v>0.6583162635811064</v>
@@ -2923,7 +2944,7 @@
         <v>7.0694734730222297</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -2940,13 +2961,13 @@
         <v>0.54147583520670417</v>
       </c>
       <c r="F47">
-        <v>0.5</v>
+        <v>0.56443271289101493</v>
       </c>
       <c r="G47">
-        <v>-0.04</v>
+        <v>2.2956877684310761E-2</v>
       </c>
       <c r="H47">
-        <v>-7.18</v>
+        <v>4.2396864627480841</v>
       </c>
       <c r="I47">
         <v>0.57473303714491031</v>
@@ -2976,7 +2997,7 @@
         <v>8.226692351857869</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -2993,13 +3014,13 @@
         <v>0.55527170400274273</v>
       </c>
       <c r="F48">
-        <v>0.56999999999999995</v>
+        <v>0.59501716637533664</v>
       </c>
       <c r="G48">
-        <v>0.01</v>
+        <v>3.9745462372593909E-2</v>
       </c>
       <c r="H48">
-        <v>2.04</v>
+        <v>7.1578404024703532</v>
       </c>
       <c r="I48">
         <v>0.59610442476623238</v>
@@ -3029,7 +3050,7 @@
         <v>24.277148810825921</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -3046,13 +3067,13 @@
         <v>0.5724035447339948</v>
       </c>
       <c r="F49">
-        <v>0.56999999999999995</v>
+        <v>0.57662607604597604</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>4.222531311981248E-3</v>
       </c>
       <c r="H49">
-        <v>-0.15</v>
+        <v>0.7376843401526324</v>
       </c>
       <c r="I49">
         <v>0.54420657317890275</v>
@@ -3082,7 +3103,7 @@
         <v>-14.70993205267958</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -3099,13 +3120,13 @@
         <v>0.61089724597209694</v>
       </c>
       <c r="F50">
-        <v>0.56999999999999995</v>
+        <v>0.58736113635750709</v>
       </c>
       <c r="G50">
-        <v>-0.04</v>
+        <v>-2.3536109614589851E-2</v>
       </c>
       <c r="H50">
-        <v>-7.04</v>
+        <v>-3.852711690840537</v>
       </c>
       <c r="I50">
         <v>0.61645084998336763</v>
@@ -3135,7 +3156,7 @@
         <v>7.0559156163910046</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -3152,13 +3173,13 @@
         <v>0.62531298714597516</v>
       </c>
       <c r="F51">
-        <v>0.62</v>
+        <v>0.63963107625803939</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1.431808911206423E-2</v>
       </c>
       <c r="H51">
-        <v>-0.4</v>
+        <v>2.2897475994244401</v>
       </c>
       <c r="I51">
         <v>0.63880234924347445</v>
@@ -3188,7 +3209,7 @@
         <v>11.521651308165159</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -3205,13 +3226,13 @@
         <v>0.63200757764391002</v>
       </c>
       <c r="F52">
-        <v>0.64</v>
+        <v>0.64534514602603421</v>
       </c>
       <c r="G52">
-        <v>0.01</v>
+        <v>1.3337568382124189E-2</v>
       </c>
       <c r="H52">
-        <v>0.9</v>
+        <v>2.1103494410377039</v>
       </c>
       <c r="I52">
         <v>0.63797979611747602</v>
@@ -3241,7 +3262,7 @@
         <v>9.3539008633919778</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -3258,13 +3279,13 @@
         <v>0.552791525227736</v>
       </c>
       <c r="F53">
-        <v>0.49</v>
+        <v>0.52727330424977481</v>
       </c>
       <c r="G53">
-        <v>-0.06</v>
+        <v>-2.5518220977961189E-2</v>
       </c>
       <c r="H53">
-        <v>-11.51</v>
+        <v>-4.6162467790091997</v>
       </c>
       <c r="I53">
         <v>0.5507737417243036</v>
@@ -3294,7 +3315,7 @@
         <v>-1.8024096145976609</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -3311,13 +3332,13 @@
         <v>0.61596827644716989</v>
       </c>
       <c r="F54">
-        <v>0.62</v>
+        <v>0.60780824478715223</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>-8.1600316600176637E-3</v>
       </c>
       <c r="H54">
-        <v>0.69</v>
+        <v>-1.32474868788434</v>
       </c>
       <c r="I54">
         <v>0.63329740645003363</v>
@@ -3347,7 +3368,7 @@
         <v>-0.59873456415721393</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -3364,13 +3385,13 @@
         <v>0.58896603362996547</v>
       </c>
       <c r="F55">
-        <v>0.55000000000000004</v>
+        <v>0.57463071146511846</v>
       </c>
       <c r="G55">
-        <v>-0.04</v>
+        <v>-1.433532216484701E-2</v>
       </c>
       <c r="H55">
-        <v>-6.89</v>
+        <v>-2.433981137501994</v>
       </c>
       <c r="I55">
         <v>0.57293604761266637</v>
@@ -3400,7 +3421,7 @@
         <v>10.452775082118681</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -3417,13 +3438,13 @@
         <v>0.66943623196188085</v>
       </c>
       <c r="F56">
-        <v>0.66</v>
+        <v>0.66794660797444572</v>
       </c>
       <c r="G56">
-        <v>-0.01</v>
+        <v>-1.4896239874351289E-3</v>
       </c>
       <c r="H56">
-        <v>-0.85</v>
+        <v>-0.2225191760340739</v>
       </c>
       <c r="I56">
         <v>0.68311673443839216</v>
@@ -3453,7 +3474,7 @@
         <v>5.5899933059847182</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -3470,13 +3491,13 @@
         <v>0.57470508719839064</v>
       </c>
       <c r="F57">
-        <v>0.54</v>
+        <v>0.54078361710123668</v>
       </c>
       <c r="G57">
-        <v>-0.03</v>
+        <v>-3.3921470097153961E-2</v>
       </c>
       <c r="H57">
-        <v>-6.01</v>
+        <v>-5.9024134034582021</v>
       </c>
       <c r="I57">
         <v>0.60788444009119957</v>
@@ -3506,7 +3527,7 @@
         <v>13.059248307523809</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -3523,13 +3544,13 @@
         <v>0.6003871488579865</v>
       </c>
       <c r="F58">
-        <v>0.56999999999999995</v>
+        <v>0.59075250812623292</v>
       </c>
       <c r="G58">
-        <v>-0.03</v>
+        <v>-9.6346407317535743E-3</v>
       </c>
       <c r="H58">
-        <v>-4.3600000000000003</v>
+        <v>-1.604738001151407</v>
       </c>
       <c r="I58">
         <v>0.61966051404511746</v>
@@ -3559,7 +3580,7 @@
         <v>5.2473662098592593</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -3576,13 +3597,13 @@
         <v>0.5563209674783004</v>
       </c>
       <c r="F59">
-        <v>0.56999999999999995</v>
+        <v>0.60114512078632121</v>
       </c>
       <c r="G59">
-        <v>0.02</v>
+        <v>4.4824153308020809E-2</v>
       </c>
       <c r="H59">
-        <v>2.97</v>
+        <v>8.0572467924767182</v>
       </c>
       <c r="I59">
         <v>0.60114614326408922</v>
@@ -3612,7 +3633,7 @@
         <v>17.68295455305357</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -3629,13 +3650,13 @@
         <v>0.66768023390299991</v>
       </c>
       <c r="F60">
-        <v>0.66</v>
+        <v>0.67150657225459653</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>3.826338351596625E-3</v>
       </c>
       <c r="H60">
-        <v>-0.69</v>
+        <v>0.57307947087625077</v>
       </c>
       <c r="I60">
         <v>0.66473063222277551</v>
@@ -3665,7 +3686,7 @@
         <v>2.899905750145658</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -3682,13 +3703,13 @@
         <v>0.597944994463808</v>
       </c>
       <c r="F61">
-        <v>0.54</v>
+        <v>0.62081607713484699</v>
       </c>
       <c r="G61">
-        <v>-0.06</v>
+        <v>2.2871082671038989E-2</v>
       </c>
       <c r="H61">
-        <v>-10.07</v>
+        <v>3.8249475926373551</v>
       </c>
       <c r="I61">
         <v>0.61795997218240539</v>
@@ -3718,7 +3739,7 @@
         <v>6.4529305961412664</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -3735,13 +3756,13 @@
         <v>0.58803198999576023</v>
       </c>
       <c r="F62">
-        <v>0.55000000000000004</v>
+        <v>0.59264091034246547</v>
       </c>
       <c r="G62">
-        <v>-0.03</v>
+        <v>4.6089203467052364E-3</v>
       </c>
       <c r="H62">
-        <v>-5.65</v>
+        <v>0.78378734917780024</v>
       </c>
       <c r="I62">
         <v>0.60515924753579819</v>
@@ -3771,7 +3792,7 @@
         <v>15.539614994660701</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -3788,13 +3809,13 @@
         <v>0.62077573882610437</v>
       </c>
       <c r="F63">
-        <v>0.62</v>
+        <v>0.61768045452372933</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>-3.0952843023750449E-3</v>
       </c>
       <c r="H63">
-        <v>-0.67</v>
+        <v>-0.49861554000616581</v>
       </c>
       <c r="I63">
         <v>0.64367457016743046</v>
@@ -3824,7 +3845,7 @@
         <v>6.5365225001105722</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -3841,13 +3862,13 @@
         <v>0.54378518447839308</v>
       </c>
       <c r="F64">
-        <v>0.5</v>
+        <v>0.48150956186838068</v>
       </c>
       <c r="G64">
-        <v>-0.04</v>
+        <v>-6.2275622610012397E-2</v>
       </c>
       <c r="H64">
-        <v>-7.38</v>
+        <v>-11.45224702466804</v>
       </c>
       <c r="I64">
         <v>0.59031798981857109</v>
@@ -3877,7 +3898,7 @@
         <v>17.61389420826692</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -3894,13 +3915,13 @@
         <v>0.63959691002467878</v>
       </c>
       <c r="F65">
-        <v>0.61</v>
+        <v>0.61764570938906393</v>
       </c>
       <c r="G65">
-        <v>-0.03</v>
+        <v>-2.1951200635614839E-2</v>
       </c>
       <c r="H65">
-        <v>-4</v>
+        <v>-3.4320366924173942</v>
       </c>
       <c r="I65">
         <v>0.66089754473697948</v>
@@ -3930,7 +3951,7 @@
         <v>1.928015769750159</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -3947,13 +3968,13 @@
         <v>0.66530953293040818</v>
       </c>
       <c r="F66">
-        <v>0.64</v>
+        <v>0.64721550050224963</v>
       </c>
       <c r="G66">
-        <v>-0.03</v>
+        <v>-1.809403242815855E-2</v>
       </c>
       <c r="H66">
-        <v>-3.86</v>
+        <v>-2.719641239538829</v>
       </c>
       <c r="I66">
         <v>0.66469956071948788</v>
@@ -3983,7 +4004,7 @@
         <v>5.0835956843915593</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -4000,13 +4021,13 @@
         <v>0.64914326425900204</v>
       </c>
       <c r="F67">
-        <v>0.64</v>
+        <v>0.66678337974375546</v>
       </c>
       <c r="G67">
-        <v>-0.01</v>
+        <v>1.7640115484753419E-2</v>
       </c>
       <c r="H67">
-        <v>-1.62</v>
+        <v>2.7174456635377142</v>
       </c>
       <c r="I67">
         <v>0.6510630105537949</v>
@@ -4036,7 +4057,7 @@
         <v>4.6805838866898064</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -4053,13 +4074,13 @@
         <v>0.4632702732186883</v>
       </c>
       <c r="F68">
-        <v>0.42</v>
+        <v>0.47836481849258072</v>
       </c>
       <c r="G68">
-        <v>-0.04</v>
+        <v>1.509454527389242E-2</v>
       </c>
       <c r="H68">
-        <v>-8.4700000000000006</v>
+        <v>3.2582589789366851</v>
       </c>
       <c r="I68">
         <v>0.53471884067587894</v>
@@ -4089,7 +4110,7 @@
         <v>13.09151357847332</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -4106,13 +4127,13 @@
         <v>0.5667314691310702</v>
       </c>
       <c r="F69">
-        <v>0.5</v>
+        <v>0.55607477754236156</v>
       </c>
       <c r="G69">
-        <v>-7.0000000000000007E-2</v>
+        <v>-1.065669158870863E-2</v>
       </c>
       <c r="H69">
-        <v>-11.68</v>
+        <v>-1.8803775984149591</v>
       </c>
       <c r="I69">
         <v>0.60929520499385137</v>
@@ -4142,7 +4163,7 @@
         <v>4.7937478032483574</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -4159,13 +4180,13 @@
         <v>0.60292184229615331</v>
       </c>
       <c r="F70">
-        <v>0.6</v>
+        <v>0.60970854471612079</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>6.786702419967483E-3</v>
       </c>
       <c r="H70">
-        <v>0.06</v>
+        <v>1.125635520869698</v>
       </c>
       <c r="I70">
         <v>0.63262234308647525</v>
@@ -4195,7 +4216,7 @@
         <v>3.252733080974227</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -4212,13 +4233,13 @@
         <v>0.66868082892100067</v>
       </c>
       <c r="F71">
-        <v>0.66</v>
+        <v>0.67844431235107039</v>
       </c>
       <c r="G71">
-        <v>-0.01</v>
+        <v>9.7634834300697193E-3</v>
       </c>
       <c r="H71">
-        <v>-1.6</v>
+        <v>1.460111163322015</v>
       </c>
       <c r="I71">
         <v>0.69206466833841529</v>
@@ -4248,7 +4269,7 @@
         <v>-0.47583852446226887</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -4265,13 +4286,13 @@
         <v>0.62510555600810924</v>
       </c>
       <c r="F72">
-        <v>0.6</v>
+        <v>0.63716170202443245</v>
       </c>
       <c r="G72">
-        <v>-0.03</v>
+        <v>1.205614601632321E-2</v>
       </c>
       <c r="H72">
-        <v>-4.13</v>
+        <v>1.9286576323706219</v>
       </c>
       <c r="I72">
         <v>0.62156823084696877</v>
@@ -4301,7 +4322,7 @@
         <v>2.1339192489072731</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -4318,13 +4339,13 @@
         <v>0.61873908866004057</v>
       </c>
       <c r="F73">
-        <v>0.61</v>
+        <v>0.6173398508893313</v>
       </c>
       <c r="G73">
-        <v>-0.01</v>
+        <v>-1.399237770709272E-3</v>
       </c>
       <c r="H73">
-        <v>-0.99</v>
+        <v>-0.22614342561409881</v>
       </c>
       <c r="I73">
         <v>0.61932050525637949</v>
@@ -4354,7 +4375,7 @@
         <v>3.7182249689193712</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -4371,13 +4392,13 @@
         <v>0.53400789618137989</v>
       </c>
       <c r="F74">
-        <v>0.47</v>
+        <v>0.4436909326952313</v>
       </c>
       <c r="G74">
-        <v>-0.06</v>
+        <v>-9.0316963486148594E-2</v>
       </c>
       <c r="H74">
-        <v>-11.77</v>
+        <v>-16.91303895166968</v>
       </c>
       <c r="I74">
         <v>0.52613833692178669</v>
@@ -4407,7 +4428,7 @@
         <v>14.15460777592792</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -4424,13 +4445,13 @@
         <v>0.70595238910730163</v>
       </c>
       <c r="F75">
-        <v>0.69</v>
+        <v>0.71186193095276429</v>
       </c>
       <c r="G75">
-        <v>-0.02</v>
+        <v>5.9095418454626616E-3</v>
       </c>
       <c r="H75">
-        <v>-2.61</v>
+        <v>0.83710203926577242</v>
       </c>
       <c r="I75">
         <v>0.71178278670838946</v>
@@ -4460,7 +4481,7 @@
         <v>-2.7208087349479571</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -4477,13 +4498,13 @@
         <v>0.57642769641396041</v>
       </c>
       <c r="F76">
-        <v>0.51</v>
+        <v>0.54089807529348444</v>
       </c>
       <c r="G76">
-        <v>-7.0000000000000007E-2</v>
+        <v>-3.5529621120475967E-2</v>
       </c>
       <c r="H76">
-        <v>-12.19</v>
+        <v>-6.1637602324646883</v>
       </c>
       <c r="I76">
         <v>0.55916721437165839</v>
@@ -4513,7 +4534,7 @@
         <v>10.140506136377461</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -4530,13 +4551,13 @@
         <v>0.57673708607965102</v>
       </c>
       <c r="F77">
-        <v>0.56000000000000005</v>
+        <v>0.53481690755220768</v>
       </c>
       <c r="G77">
-        <v>-0.02</v>
+        <v>-4.1920178527443341E-2</v>
       </c>
       <c r="H77">
-        <v>-3.15</v>
+        <v>-7.268507529556353</v>
       </c>
       <c r="I77">
         <v>0.60322445054527085</v>
@@ -4566,7 +4587,7 @@
         <v>10.099520898629089</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -4583,13 +4604,13 @@
         <v>0.6356702895307812</v>
       </c>
       <c r="F78">
-        <v>0.6</v>
+        <v>0.61358684096918314</v>
       </c>
       <c r="G78">
-        <v>-0.03</v>
+        <v>-2.2083448561598051E-2</v>
       </c>
       <c r="H78">
-        <v>-4.91</v>
+        <v>-3.47404132697454</v>
       </c>
       <c r="I78">
         <v>0.6380232018361004</v>
@@ -4619,7 +4640,7 @@
         <v>6.0131650725503887</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -4636,13 +4657,13 @@
         <v>0.63890134279725408</v>
       </c>
       <c r="F79">
-        <v>0.63</v>
+        <v>0.63646476994690515</v>
       </c>
       <c r="G79">
-        <v>-0.01</v>
+        <v>-2.4365728503489281E-3</v>
       </c>
       <c r="H79">
-        <v>-0.8</v>
+        <v>-0.38136918599686498</v>
       </c>
       <c r="I79">
         <v>0.6216460709712921</v>
@@ -4672,7 +4693,7 @@
         <v>6.526175930165488</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -4689,13 +4710,13 @@
         <v>0.58099892519336582</v>
       </c>
       <c r="F80">
-        <v>0.55000000000000004</v>
+        <v>0.57712629382284741</v>
       </c>
       <c r="G80">
-        <v>-0.03</v>
+        <v>-3.872631370518409E-3</v>
       </c>
       <c r="H80">
-        <v>-5.01</v>
+        <v>-0.6665470799674087</v>
       </c>
       <c r="I80">
         <v>0.59121302145178023</v>
@@ -4725,7 +4746,7 @@
         <v>5.9765344629162431</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -4742,13 +4763,13 @@
         <v>0.64654354460843255</v>
       </c>
       <c r="F81">
-        <v>0.64</v>
+        <v>0.68480316912950268</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>3.8259624521070117E-2</v>
       </c>
       <c r="H81">
-        <v>-0.53</v>
+        <v>5.9175634557207397</v>
       </c>
       <c r="I81">
         <v>0.6706044623823848</v>
@@ -4778,7 +4799,7 @@
         <v>7.1535280619926729</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -4795,13 +4816,13 @@
         <v>0.60094610713212993</v>
       </c>
       <c r="F82">
-        <v>0.61</v>
+        <v>0.64152580468866804</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>4.0579697556538119E-2</v>
       </c>
       <c r="H82">
-        <v>0.78</v>
+        <v>6.7526350657623722</v>
       </c>
       <c r="I82">
         <v>0.64830769771719488</v>
@@ -4831,7 +4852,7 @@
         <v>19.604961909244309</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -4848,13 +4869,13 @@
         <v>0.61011502716393096</v>
       </c>
       <c r="F83">
-        <v>0.59</v>
+        <v>0.63204392902356266</v>
       </c>
       <c r="G83">
-        <v>-0.02</v>
+        <v>2.19289018596317E-2</v>
       </c>
       <c r="H83">
-        <v>-4.09</v>
+        <v>3.5942241845060559</v>
       </c>
       <c r="I83">
         <v>0.61999134943451284</v>
@@ -4884,7 +4905,7 @@
         <v>11.101375081557769</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -4901,13 +4922,13 @@
         <v>0.6321723920798954</v>
       </c>
       <c r="F84">
-        <v>0.63</v>
+        <v>0.63903336666552268</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>6.8609745856272886E-3</v>
       </c>
       <c r="H84">
-        <v>-0.48</v>
+        <v>1.085301204479076</v>
       </c>
       <c r="I84">
         <v>0.63263064604768748</v>
@@ -4937,7 +4958,7 @@
         <v>-6.9966667657703621</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -4954,13 +4975,13 @@
         <v>0.59895101581459531</v>
       </c>
       <c r="F85">
-        <v>0.6</v>
+        <v>0.62075208368873147</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>2.180106787413616E-2</v>
       </c>
       <c r="H85">
-        <v>-0.25</v>
+        <v>3.6398749310886318</v>
       </c>
       <c r="I85">
         <v>0.6115149703838223</v>
@@ -4990,7 +5011,7 @@
         <v>11.212614938277209</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -5007,13 +5028,13 @@
         <v>0.57706576698884782</v>
       </c>
       <c r="F86">
-        <v>0.53</v>
+        <v>0.57397556386411552</v>
       </c>
       <c r="G86">
-        <v>-0.04</v>
+        <v>-3.0902031247322941E-3</v>
       </c>
       <c r="H86">
-        <v>-7.62</v>
+        <v>-0.53550276268458907</v>
       </c>
       <c r="I86">
         <v>0.59396549617226235</v>
@@ -5043,7 +5064,7 @@
         <v>16.23901037069438</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -5060,13 +5081,13 @@
         <v>0.46313534371080128</v>
       </c>
       <c r="F87">
-        <v>0.35</v>
+        <v>0.489426330965537</v>
       </c>
       <c r="G87">
-        <v>-0.11</v>
+        <v>2.6290987254735661E-2</v>
       </c>
       <c r="H87">
-        <v>-23.48</v>
+        <v>5.6767395561053791</v>
       </c>
       <c r="I87">
         <v>0.51059888018054145</v>
@@ -5096,7 +5117,7 @@
         <v>7.6651042618219352</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -5113,13 +5134,13 @@
         <v>0.53492687564813035</v>
       </c>
       <c r="F88">
-        <v>0.5</v>
+        <v>0.55832864673742288</v>
       </c>
       <c r="G88">
-        <v>-0.04</v>
+        <v>2.340177108929253E-2</v>
       </c>
       <c r="H88">
-        <v>-7.29</v>
+        <v>4.3747607672428837</v>
       </c>
       <c r="I88">
         <v>0.56447872380207242</v>
@@ -5149,7 +5170,7 @@
         <v>18.748484270298849</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -5166,13 +5187,13 @@
         <v>0.51697723734464773</v>
       </c>
       <c r="F89">
-        <v>0.48</v>
+        <v>0.50914049197825428</v>
       </c>
       <c r="G89">
-        <v>-0.04</v>
+        <v>-7.8367453663934494E-3</v>
       </c>
       <c r="H89">
-        <v>-7.04</v>
+        <v>-1.5158782244737421</v>
       </c>
       <c r="I89">
         <v>0.45537599250489108</v>
@@ -5202,7 +5223,7 @@
         <v>17.891981592004718</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -5219,13 +5240,13 @@
         <v>0.58487301606334596</v>
       </c>
       <c r="F90">
-        <v>0.56999999999999995</v>
+        <v>0.59960614987671379</v>
       </c>
       <c r="G90">
-        <v>-0.01</v>
+        <v>1.473313381336783E-2</v>
       </c>
       <c r="H90">
-        <v>-2.34</v>
+        <v>2.5190312099767178</v>
       </c>
       <c r="I90">
         <v>0.5980170980474343</v>
@@ -5255,7 +5276,7 @@
         <v>5.6283325467554901</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -5272,13 +5293,13 @@
         <v>0.60291016462773783</v>
       </c>
       <c r="F91">
-        <v>0.57999999999999996</v>
+        <v>0.61325122646926333</v>
       </c>
       <c r="G91">
-        <v>-0.03</v>
+        <v>1.0341061841525501E-2</v>
       </c>
       <c r="H91">
-        <v>-4.21</v>
+        <v>1.7151911591854661</v>
       </c>
       <c r="I91">
         <v>0.65010617737043885</v>
@@ -5308,7 +5329,7 @@
         <v>4.4182980881615688</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -5325,13 +5346,13 @@
         <v>0.58778054819322723</v>
       </c>
       <c r="F92">
-        <v>0.56000000000000005</v>
+        <v>0.58293693323876206</v>
       </c>
       <c r="G92">
-        <v>-0.03</v>
+        <v>-4.8436149544651697E-3</v>
       </c>
       <c r="H92">
-        <v>-5</v>
+        <v>-0.82405159023276786</v>
       </c>
       <c r="I92">
         <v>0.59915456545157242</v>
@@ -5361,7 +5382,7 @@
         <v>4.3238735182580497</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -5378,13 +5399,13 @@
         <v>0.59390413580566048</v>
       </c>
       <c r="F93">
-        <v>0.56999999999999995</v>
+        <v>0.57806732891567569</v>
       </c>
       <c r="G93">
-        <v>-0.02</v>
+        <v>-1.5836806889984789E-2</v>
       </c>
       <c r="H93">
-        <v>-3.35</v>
+        <v>-2.66655945550899</v>
       </c>
       <c r="I93">
         <v>0.61110176817781225</v>
@@ -5414,7 +5435,7 @@
         <v>13.344333477747851</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -5431,13 +5452,13 @@
         <v>0.60602135637526722</v>
       </c>
       <c r="F94">
-        <v>0.6</v>
+        <v>0.6177115563347757</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1.169019995950848E-2</v>
       </c>
       <c r="H94">
-        <v>-0.32</v>
+        <v>1.9290079196927761</v>
       </c>
       <c r="I94">
         <v>0.61689831569330211</v>
@@ -5467,7 +5488,7 @@
         <v>6.7263726087566571</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -5484,13 +5505,13 @@
         <v>0.54760406482764323</v>
       </c>
       <c r="F95">
-        <v>0.59</v>
+        <v>0.60670078736515864</v>
       </c>
       <c r="G95">
-        <v>0.04</v>
+        <v>5.9096722537515411E-2</v>
       </c>
       <c r="H95">
-        <v>6.97</v>
+        <v>10.791870684180539</v>
       </c>
       <c r="I95">
         <v>0.61996118551543056</v>
@@ -5520,7 +5541,7 @@
         <v>11.07541617972487</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -5537,13 +5558,13 @@
         <v>0.57588232055452815</v>
       </c>
       <c r="F96">
-        <v>0.56000000000000005</v>
+        <v>0.56177479330602043</v>
       </c>
       <c r="G96">
-        <v>-0.02</v>
+        <v>-1.410752724850772E-2</v>
       </c>
       <c r="H96">
-        <v>-3.37</v>
+        <v>-2.449723970502049</v>
       </c>
       <c r="I96">
         <v>0.57020971176177337</v>
@@ -5573,7 +5594,7 @@
         <v>4.5901877568614209</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -5590,13 +5611,13 @@
         <v>0.53829132620426501</v>
       </c>
       <c r="F97">
-        <v>0.52</v>
+        <v>0.5660398290292411</v>
       </c>
       <c r="G97">
-        <v>-0.02</v>
+        <v>2.7748502824976099E-2</v>
       </c>
       <c r="H97">
-        <v>-3.69</v>
+        <v>5.1549228966112661</v>
       </c>
       <c r="I97">
         <v>0.57936646420965499</v>
@@ -5626,7 +5647,7 @@
         <v>21.22899059765658</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -5643,13 +5664,13 @@
         <v>0.61006662292185454</v>
       </c>
       <c r="F98">
-        <v>0.56999999999999995</v>
+        <v>0.60021003996029632</v>
       </c>
       <c r="G98">
-        <v>-0.04</v>
+        <v>-9.8565829615582246E-3</v>
       </c>
       <c r="H98">
-        <v>-6.43</v>
+        <v>-1.6156568137347169</v>
       </c>
       <c r="I98">
         <v>0.64215993277864292</v>
@@ -5679,7 +5700,7 @@
         <v>4.0752330989357226</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -5696,13 +5717,13 @@
         <v>0.53839176275823986</v>
       </c>
       <c r="F99">
-        <v>0.51</v>
+        <v>0.56466385199821922</v>
       </c>
       <c r="G99">
-        <v>-0.03</v>
+        <v>2.6272089239979372E-2</v>
       </c>
       <c r="H99">
-        <v>-4.67</v>
+        <v>4.8797346202669569</v>
       </c>
       <c r="I99">
         <v>0.58825787695206588</v>
@@ -5732,7 +5753,7 @@
         <v>14.312327962861371</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -5749,13 +5770,13 @@
         <v>0.54251418108978122</v>
       </c>
       <c r="F100">
-        <v>0.56000000000000005</v>
+        <v>0.5844568062962392</v>
       </c>
       <c r="G100">
-        <v>0.02</v>
+        <v>4.1942625206457973E-2</v>
       </c>
       <c r="H100">
-        <v>3.95</v>
+        <v>7.7311573906151674</v>
       </c>
       <c r="I100">
         <v>0.5893161775997845</v>
@@ -5785,7 +5806,7 @@
         <v>17.128302488133262</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -5802,13 +5823,13 @@
         <v>0.5384650981385386</v>
       </c>
       <c r="F101">
-        <v>0.53</v>
+        <v>0.54621350214103914</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>7.7484040025005418E-3</v>
       </c>
       <c r="H101">
-        <v>-0.7</v>
+        <v>1.4389798019011071</v>
       </c>
       <c r="I101">
         <v>0.53399542596463823</v>
@@ -5838,7 +5859,7 @@
         <v>-4.2563095394358177</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -5855,13 +5876,13 @@
         <v>0.63815362263533604</v>
       </c>
       <c r="F102">
-        <v>0.62</v>
+        <v>0.64336335877401152</v>
       </c>
       <c r="G102">
-        <v>-0.02</v>
+        <v>5.2097361386754804E-3</v>
       </c>
       <c r="H102">
-        <v>-3.13</v>
+        <v>0.81637648896533987</v>
       </c>
       <c r="I102">
         <v>0.66953631229876376</v>
@@ -5891,7 +5912,7 @@
         <v>2.959342900233529</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -5908,13 +5929,13 @@
         <v>0.55239777949257052</v>
       </c>
       <c r="F103">
-        <v>0.54</v>
+        <v>0.58021992070793649</v>
       </c>
       <c r="G103">
-        <v>-0.01</v>
+        <v>2.782214121536597E-2</v>
       </c>
       <c r="H103">
-        <v>-2.12</v>
+        <v>5.0366135144357802</v>
       </c>
       <c r="I103">
         <v>0.58914471787613731</v>
@@ -5944,7 +5965,7 @@
         <v>17.372158221635068</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -5961,13 +5982,13 @@
         <v>0.58207031373892137</v>
       </c>
       <c r="F104">
-        <v>0.59</v>
+        <v>0.59079129523337026</v>
       </c>
       <c r="G104">
-        <v>0.01</v>
+        <v>8.7209814944488873E-3</v>
       </c>
       <c r="H104">
-        <v>1.5</v>
+        <v>1.4982694167015269</v>
       </c>
       <c r="I104">
         <v>0.58880619432376102</v>
@@ -5997,7 +6018,7 @@
         <v>0.82905093325260026</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -6014,13 +6035,13 @@
         <v>0.56277717013147521</v>
       </c>
       <c r="F105">
-        <v>0.54</v>
+        <v>0.5985809669996951</v>
       </c>
       <c r="G105">
-        <v>-0.02</v>
+        <v>3.5803796868219877E-2</v>
       </c>
       <c r="H105">
-        <v>-3.38</v>
+        <v>6.361984595049484</v>
       </c>
       <c r="I105">
         <v>0.57216352640439228</v>
@@ -6050,7 +6071,7 @@
         <v>17.181120017854749</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -6067,13 +6088,13 @@
         <v>0.58024401642629342</v>
       </c>
       <c r="F106">
-        <v>0.56999999999999995</v>
+        <v>0.59307490038943733</v>
       </c>
       <c r="G106">
-        <v>-0.01</v>
+        <v>1.283088396314391E-2</v>
       </c>
       <c r="H106">
-        <v>-1.78</v>
+        <v>2.2112910430630488</v>
       </c>
       <c r="I106">
         <v>0.61930425907065145</v>
@@ -6103,7 +6124,7 @@
         <v>11.29447365724984</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -6120,13 +6141,13 @@
         <v>0.56443243837179291</v>
       </c>
       <c r="F107">
-        <v>0.56000000000000005</v>
+        <v>0.59164403136887778</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>2.7211592997084869E-2</v>
       </c>
       <c r="H107">
-        <v>0.04</v>
+        <v>4.821054061949666</v>
       </c>
       <c r="I107">
         <v>0.58845809025486107</v>
@@ -6156,7 +6177,7 @@
         <v>12.54554080995514</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -6173,13 +6194,13 @@
         <v>0.51345897218455405</v>
       </c>
       <c r="F108">
-        <v>0.46</v>
+        <v>0.51657105231095612</v>
       </c>
       <c r="G108">
-        <v>-0.05</v>
+        <v>3.112080126402073E-3</v>
       </c>
       <c r="H108">
-        <v>-10.17</v>
+        <v>0.60610103143420946</v>
       </c>
       <c r="I108">
         <v>0.50490449481148048</v>
@@ -6209,7 +6230,7 @@
         <v>14.29407136769659</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -6226,13 +6247,13 @@
         <v>0.59522696144760734</v>
       </c>
       <c r="F109">
-        <v>0.56999999999999995</v>
+        <v>0.60852508074041778</v>
       </c>
       <c r="G109">
-        <v>-0.02</v>
+        <v>1.329811929281044E-2</v>
       </c>
       <c r="H109">
-        <v>-4.1100000000000003</v>
+        <v>2.2341258299975308</v>
       </c>
       <c r="I109">
         <v>0.5913589670444257</v>
@@ -6262,7 +6283,7 @@
         <v>10.699784626048981</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -6279,13 +6300,13 @@
         <v>0.56285990330897284</v>
       </c>
       <c r="F110">
-        <v>0.53</v>
+        <v>0.59271099014478734</v>
       </c>
       <c r="G110">
-        <v>-0.03</v>
+        <v>2.98510868358145E-2</v>
       </c>
       <c r="H110">
-        <v>-5.45</v>
+        <v>5.3034665749548386</v>
       </c>
       <c r="I110">
         <v>0.62462474850336125</v>
@@ -6315,7 +6336,7 @@
         <v>18.210588423876821</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -6332,13 +6353,13 @@
         <v>0.57359509283008125</v>
       </c>
       <c r="F111">
-        <v>0.55000000000000004</v>
+        <v>0.56085754442500002</v>
       </c>
       <c r="G111">
-        <v>-0.02</v>
+        <v>-1.273754840508123E-2</v>
       </c>
       <c r="H111">
-        <v>-4.0599999999999996</v>
+        <v>-2.2206515648931009</v>
       </c>
       <c r="I111">
         <v>0.50242185966849195</v>
@@ -6368,7 +6389,7 @@
         <v>9.1603630795421669</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>110</v>
       </c>
@@ -6385,13 +6406,13 @@
         <v>0.56368128865516587</v>
       </c>
       <c r="F112">
-        <v>0.53</v>
+        <v>0.53213506855587656</v>
       </c>
       <c r="G112">
-        <v>-0.04</v>
+        <v>-3.1546220099289313E-2</v>
       </c>
       <c r="H112">
-        <v>-6.35</v>
+        <v>-5.5964639476595854</v>
       </c>
       <c r="I112">
         <v>0.62238277819415244</v>
@@ -6421,7 +6442,7 @@
         <v>-2.31628473236532</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>111</v>
       </c>
@@ -6438,13 +6459,13 @@
         <v>0.55166175726227196</v>
       </c>
       <c r="F113">
-        <v>0.56000000000000005</v>
+        <v>0.58016095932655509</v>
       </c>
       <c r="G113">
-        <v>0.01</v>
+        <v>2.8499202064283139E-2</v>
       </c>
       <c r="H113">
-        <v>2.25</v>
+        <v>5.1660644750355607</v>
       </c>
       <c r="I113">
         <v>0.60412191733512932</v>
@@ -6474,7 +6495,7 @@
         <v>12.57197307449152</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>112</v>
       </c>
@@ -6491,13 +6512,13 @@
         <v>0.57411246604240329</v>
       </c>
       <c r="F114">
-        <v>0.55000000000000004</v>
+        <v>0.52263811454504117</v>
       </c>
       <c r="G114">
-        <v>-0.03</v>
+        <v>-5.1474351497362132E-2</v>
       </c>
       <c r="H114">
-        <v>-4.45</v>
+        <v>-8.9659003317235566</v>
       </c>
       <c r="I114">
         <v>0.59597915906541332</v>
@@ -6527,7 +6548,7 @@
         <v>10.022772791095759</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>113</v>
       </c>
@@ -6544,13 +6565,13 @@
         <v>0.55132368477918736</v>
       </c>
       <c r="F115">
-        <v>0.51</v>
+        <v>0.52703506478971474</v>
       </c>
       <c r="G115">
-        <v>-0.04</v>
+        <v>-2.428861998947263E-2</v>
       </c>
       <c r="H115">
-        <v>-7.6</v>
+        <v>-4.4055099862434801</v>
       </c>
       <c r="I115">
         <v>0.55501641707323524</v>
@@ -6580,7 +6601,7 @@
         <v>0.65603653122458183</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>114</v>
       </c>
@@ -6597,13 +6618,13 @@
         <v>0.59483918214139253</v>
       </c>
       <c r="F116">
-        <v>0.56999999999999995</v>
+        <v>0.58932781717967075</v>
       </c>
       <c r="G116">
-        <v>-0.02</v>
+        <v>-5.5113649617217764E-3</v>
       </c>
       <c r="H116">
-        <v>-3.4</v>
+        <v>-0.92653025005533884</v>
       </c>
       <c r="I116">
         <v>0.58025197907868509</v>
@@ -6633,7 +6654,7 @@
         <v>-3.339895866100635</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>115</v>
       </c>
@@ -6650,13 +6671,13 @@
         <v>0.57217103012002801</v>
       </c>
       <c r="F117">
-        <v>0.54</v>
+        <v>0.57833958556423326</v>
       </c>
       <c r="G117">
-        <v>-0.03</v>
+        <v>6.1685554442052482E-3</v>
       </c>
       <c r="H117">
-        <v>-5.0999999999999996</v>
+        <v>1.0780964291238639</v>
       </c>
       <c r="I117">
         <v>0.60062077525338564</v>
@@ -6686,7 +6707,7 @@
         <v>18.08208897926378</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>116</v>
       </c>
@@ -6703,13 +6724,13 @@
         <v>0.56568681765309836</v>
       </c>
       <c r="F118">
-        <v>0.55000000000000004</v>
+        <v>0.59505248887149853</v>
       </c>
       <c r="G118">
-        <v>-0.01</v>
+        <v>2.9365671218400169E-2</v>
       </c>
       <c r="H118">
-        <v>-2.4300000000000002</v>
+        <v>5.1911535326616649</v>
       </c>
       <c r="I118">
         <v>0.60133673939225785</v>
@@ -6739,7 +6760,7 @@
         <v>10.98998012596685</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>117</v>
       </c>
@@ -6756,13 +6777,13 @@
         <v>0.555205176608355</v>
       </c>
       <c r="F119">
-        <v>0.54</v>
+        <v>0.56906237713226515</v>
       </c>
       <c r="G119">
-        <v>-0.02</v>
+        <v>1.385720052391015E-2</v>
       </c>
       <c r="H119">
-        <v>-3.29</v>
+        <v>2.4958701949721021</v>
       </c>
       <c r="I119">
         <v>0.55474154442096302</v>
@@ -6792,7 +6813,7 @@
         <v>0.95091003152050801</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>118</v>
       </c>
@@ -6809,13 +6830,13 @@
         <v>0.55900651585805339</v>
       </c>
       <c r="F120">
-        <v>0.56999999999999995</v>
+        <v>0.57582507658482807</v>
       </c>
       <c r="G120">
-        <v>0.01</v>
+        <v>1.6818560726774678E-2</v>
       </c>
       <c r="H120">
-        <v>1.28</v>
+        <v>3.008652001302496</v>
       </c>
       <c r="I120">
         <v>0.63634858214392298</v>
@@ -6845,7 +6866,7 @@
         <v>9.0154988163668275</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>119</v>
       </c>
@@ -6862,13 +6883,13 @@
         <v>0.53121680117305259</v>
       </c>
       <c r="F121">
-        <v>0.54</v>
+        <v>0.57455980522373018</v>
       </c>
       <c r="G121">
-        <v>0.01</v>
+        <v>4.3343004050677592E-2</v>
       </c>
       <c r="H121">
-        <v>1.28</v>
+        <v>8.1591929989725411</v>
       </c>
       <c r="I121">
         <v>0.59761163058805988</v>
@@ -6898,7 +6919,7 @@
         <v>11.447301378915929</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>120</v>
       </c>
@@ -6915,13 +6936,13 @@
         <v>0.69721388602933976</v>
       </c>
       <c r="F122">
-        <v>0.69</v>
+        <v>0.69899188220466635</v>
       </c>
       <c r="G122">
-        <v>-0.01</v>
+        <v>1.7779961753265901E-3</v>
       </c>
       <c r="H122">
-        <v>-0.94</v>
+        <v>0.2550144526599073</v>
       </c>
       <c r="I122">
         <v>0.6975757115083443</v>
@@ -6951,7 +6972,7 @@
         <v>1.5997871349080091</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>121</v>
       </c>
@@ -6968,13 +6989,13 @@
         <v>0.51849830644334016</v>
       </c>
       <c r="F123">
-        <v>0.5</v>
+        <v>0.5367707737925449</v>
       </c>
       <c r="G123">
-        <v>-0.02</v>
+        <v>1.8272467349204739E-2</v>
       </c>
       <c r="H123">
-        <v>-3.19</v>
+        <v>3.5241132173691079</v>
       </c>
       <c r="I123">
         <v>0.55803349705869443</v>
@@ -7004,7 +7025,7 @@
         <v>12.61857797408393</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>122</v>
       </c>
@@ -7021,13 +7042,13 @@
         <v>0.55663404394894256</v>
       </c>
       <c r="F124">
-        <v>0.54</v>
+        <v>0.56838698540327903</v>
       </c>
       <c r="G124">
-        <v>-0.02</v>
+        <v>1.1752941454336471E-2</v>
       </c>
       <c r="H124">
-        <v>-3.69</v>
+        <v>2.1114305856963571</v>
       </c>
       <c r="I124">
         <v>0.59530080571316102</v>
@@ -7057,7 +7078,7 @@
         <v>7.5573790384154211</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -7074,13 +7095,13 @@
         <v>0.58348633031744401</v>
       </c>
       <c r="F125">
-        <v>0.56999999999999995</v>
+        <v>0.58369226356225568</v>
       </c>
       <c r="G125">
-        <v>-0.01</v>
+        <v>2.0593324481166239E-4</v>
       </c>
       <c r="H125">
-        <v>-2.12</v>
+        <v>3.5293585146994787E-2</v>
       </c>
       <c r="I125">
         <v>0.61727046730716439</v>
@@ -7110,7 +7131,7 @@
         <v>3.6248293716715869</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>124</v>
       </c>
@@ -7127,13 +7148,13 @@
         <v>0.57328884270361569</v>
       </c>
       <c r="F126">
-        <v>0.54</v>
+        <v>0.54981611195700242</v>
       </c>
       <c r="G126">
-        <v>-0.03</v>
+        <v>-2.3472730746613268E-2</v>
       </c>
       <c r="H126">
-        <v>-5.67</v>
+        <v>-4.0943986692495997</v>
       </c>
       <c r="I126">
         <v>0.60965853503149192</v>
@@ -7163,7 +7184,7 @@
         <v>12.280125272723421</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>125</v>
       </c>
@@ -7180,13 +7201,13 @@
         <v>0.57978645374930715</v>
       </c>
       <c r="F127">
-        <v>0.56999999999999995</v>
+        <v>0.58861503484769462</v>
       </c>
       <c r="G127">
-        <v>-0.01</v>
+        <v>8.8285810983874669E-3</v>
       </c>
       <c r="H127">
-        <v>-1.74</v>
+        <v>1.522729798410372</v>
       </c>
       <c r="I127">
         <v>0.56330245404164647</v>
@@ -7216,7 +7237,7 @@
         <v>3.4590986088326199</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>126</v>
       </c>
@@ -7233,13 +7254,13 @@
         <v>0.62278744813611553</v>
       </c>
       <c r="F128">
-        <v>0.6</v>
+        <v>0.63374711531157701</v>
       </c>
       <c r="G128">
-        <v>-0.02</v>
+        <v>1.095966717546148E-2</v>
       </c>
       <c r="H128">
-        <v>-3.43</v>
+        <v>1.759776502924342</v>
       </c>
       <c r="I128">
         <v>0.54481056994266219</v>
@@ -7269,7 +7290,7 @@
         <v>-11.61599035538236</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>127</v>
       </c>
@@ -7286,13 +7307,13 @@
         <v>0.5670799902807937</v>
       </c>
       <c r="F129">
-        <v>0.52</v>
+        <v>0.54791740574119063</v>
       </c>
       <c r="G129">
-        <v>-0.05</v>
+        <v>-1.916258453960307E-2</v>
       </c>
       <c r="H129">
-        <v>-9.15</v>
+        <v>-3.3791678190081389</v>
       </c>
       <c r="I129">
         <v>0.60504950991637763</v>
@@ -7322,7 +7343,7 @@
         <v>7.2477066770564376</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>128</v>
       </c>
@@ -7339,13 +7360,13 @@
         <v>0.58209686743314681</v>
       </c>
       <c r="F130">
-        <v>0.57999999999999996</v>
+        <v>0.60070785685382067</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>1.8610989420673851E-2</v>
       </c>
       <c r="H130">
-        <v>0.12</v>
+        <v>3.1972323614696831</v>
       </c>
       <c r="I130">
         <v>0.60191007677030561</v>
@@ -7375,7 +7396,7 @@
         <v>4.408083322527439</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -7392,13 +7413,13 @@
         <v>0.58844996641116332</v>
       </c>
       <c r="F131">
-        <v>0.56999999999999995</v>
+        <v>0.57729394320689087</v>
       </c>
       <c r="G131">
-        <v>-0.01</v>
+        <v>-1.1156023204272451E-2</v>
       </c>
       <c r="H131">
-        <v>-2.4300000000000002</v>
+        <v>-1.895832074273156</v>
       </c>
       <c r="I131">
         <v>0.58086751431566763</v>
@@ -7428,7 +7449,7 @@
         <v>2.8738973047067589</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>130</v>
       </c>
@@ -7445,13 +7466,13 @@
         <v>0.65710999582952578</v>
       </c>
       <c r="F132">
-        <v>0.64</v>
+        <v>0.65261741801135131</v>
       </c>
       <c r="G132">
-        <v>-0.02</v>
+        <v>-4.4925778181744702E-3</v>
       </c>
       <c r="H132">
-        <v>-2.7</v>
+        <v>-0.68368733494962408</v>
       </c>
       <c r="I132">
         <v>0.66621647416629659</v>
@@ -7481,7 +7502,7 @@
         <v>-1.0848414997540889</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>131</v>
       </c>
@@ -7498,13 +7519,13 @@
         <v>0.59709169088591341</v>
       </c>
       <c r="F133">
-        <v>0.59</v>
+        <v>0.59952738165802666</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>2.435690772113253E-3</v>
       </c>
       <c r="H133">
-        <v>-0.78</v>
+        <v>0.40792575232446848</v>
       </c>
       <c r="I133">
         <v>0.59669437049385066</v>
@@ -7534,7 +7555,7 @@
         <v>0.99487506022704486</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>132</v>
       </c>
@@ -7551,13 +7572,13 @@
         <v>0.55461189588824855</v>
       </c>
       <c r="F134">
-        <v>0.54</v>
+        <v>0.55843594200361013</v>
       </c>
       <c r="G134">
-        <v>-0.02</v>
+        <v>3.824046115361579E-3</v>
       </c>
       <c r="H134">
-        <v>-3.1</v>
+        <v>0.68949947588792881</v>
       </c>
       <c r="I134">
         <v>0.59361211435565964</v>
@@ -7587,7 +7608,7 @@
         <v>17.875998803664849</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>133</v>
       </c>
@@ -7604,13 +7625,13 @@
         <v>0.63964622541842231</v>
       </c>
       <c r="F135">
-        <v>0.65</v>
+        <v>0.65615063993099376</v>
       </c>
       <c r="G135">
-        <v>0.01</v>
+        <v>1.6504414512571449E-2</v>
       </c>
       <c r="H135">
-        <v>1.17</v>
+        <v>2.5802410546197079</v>
       </c>
       <c r="I135">
         <v>0.66580260909122568</v>
@@ -7640,7 +7661,7 @@
         <v>7.3137207132880464</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>134</v>
       </c>
@@ -7657,13 +7678,13 @@
         <v>0.54308097680931211</v>
       </c>
       <c r="F136">
-        <v>0.49</v>
+        <v>0.54424467610099359</v>
       </c>
       <c r="G136">
-        <v>-0.05</v>
+        <v>1.163699291681475E-3</v>
       </c>
       <c r="H136">
-        <v>-9.18</v>
+        <v>0.21427730695308</v>
       </c>
       <c r="I136">
         <v>0.57976746219098341</v>
@@ -7693,7 +7714,7 @@
         <v>9.0611297760999143</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>135</v>
       </c>
@@ -7710,13 +7731,13 @@
         <v>0.5513060894654549</v>
       </c>
       <c r="F137">
-        <v>0.53</v>
+        <v>0.54854558538332476</v>
       </c>
       <c r="G137">
-        <v>-0.02</v>
+        <v>-2.760504082130133E-3</v>
       </c>
       <c r="H137">
-        <v>-4.24</v>
+        <v>-0.50072076744276695</v>
       </c>
       <c r="I137">
         <v>0.57772816011667649</v>
@@ -7746,7 +7767,7 @@
         <v>-1.6568922180093051</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>136</v>
       </c>
@@ -7763,13 +7784,13 @@
         <v>0.66407550146791317</v>
       </c>
       <c r="F138">
-        <v>0.65</v>
+        <v>0.65097979438326325</v>
       </c>
       <c r="G138">
-        <v>-0.01</v>
+        <v>-1.309570708464991E-2</v>
       </c>
       <c r="H138">
-        <v>-1.75</v>
+        <v>-1.972020810239552</v>
       </c>
       <c r="I138">
         <v>0.67115367232064882</v>
@@ -7799,7 +7820,7 @@
         <v>5.4925462823896076</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>137</v>
       </c>
@@ -7816,13 +7837,13 @@
         <v>0.54881308336519541</v>
       </c>
       <c r="F139">
-        <v>0.57999999999999996</v>
+        <v>0.60287580111468331</v>
       </c>
       <c r="G139">
-        <v>0.03</v>
+        <v>5.4062717749487899E-2</v>
       </c>
       <c r="H139">
-        <v>5.94</v>
+        <v>9.8508434634953979</v>
       </c>
       <c r="I139">
         <v>0.61321487134081343</v>
@@ -7852,7 +7873,7 @@
         <v>15.126985701310661</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>138</v>
       </c>
@@ -7869,13 +7890,13 @@
         <v>0.52908836384944191</v>
       </c>
       <c r="F140">
-        <v>0.52</v>
+        <v>0.52680291667323909</v>
       </c>
       <c r="G140">
-        <v>-0.01</v>
+        <v>-2.2854471762028261E-3</v>
       </c>
       <c r="H140">
-        <v>-1.55</v>
+        <v>-0.43195944805415831</v>
       </c>
       <c r="I140">
         <v>0.57785622125280423</v>
@@ -7905,7 +7926,7 @@
         <v>5.3169460574886713</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>139</v>
       </c>
@@ -7922,13 +7943,13 @@
         <v>0.52081577251819278</v>
       </c>
       <c r="F141">
-        <v>0.51</v>
+        <v>0.55111425357399035</v>
       </c>
       <c r="G141">
-        <v>-0.01</v>
+        <v>3.029848105579758E-2</v>
       </c>
       <c r="H141">
-        <v>-1.73</v>
+        <v>5.8175045101459961</v>
       </c>
       <c r="I141">
         <v>0.54618632503613651</v>
@@ -7958,7 +7979,7 @@
         <v>13.033328324862239</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>140</v>
       </c>
@@ -7975,13 +7996,13 @@
         <v>0.54381120213803102</v>
       </c>
       <c r="F142">
-        <v>0.52</v>
+        <v>0.57575404690412091</v>
       </c>
       <c r="G142">
-        <v>-0.02</v>
+        <v>3.1942844766089877E-2</v>
       </c>
       <c r="H142">
-        <v>-3.62</v>
+        <v>5.8738850248954781</v>
       </c>
       <c r="I142">
         <v>0.59581064877751877</v>
@@ -8011,7 +8032,7 @@
         <v>13.405207617647021</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>141</v>
       </c>
@@ -8028,13 +8049,13 @@
         <v>0.63926753038291884</v>
       </c>
       <c r="F143">
-        <v>0.64</v>
+        <v>0.66930917090542164</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>3.0041640522502799E-2</v>
       </c>
       <c r="H143">
-        <v>0.63</v>
+        <v>4.699384701191998</v>
       </c>
       <c r="I143">
         <v>0.66120010981779731</v>
@@ -8064,7 +8085,7 @@
         <v>7.9231981959637174</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>142</v>
       </c>
@@ -8081,13 +8102,13 @@
         <v>0.59298827754057193</v>
       </c>
       <c r="F144">
-        <v>0.59</v>
+        <v>0.61739364180333234</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>2.4405364262760409E-2</v>
       </c>
       <c r="H144">
-        <v>-0.42</v>
+        <v>4.1156571195609528</v>
       </c>
       <c r="I144">
         <v>0.60599505809147147</v>
@@ -8117,7 +8138,7 @@
         <v>9.1271961120150973</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>143</v>
       </c>
@@ -8134,13 +8155,13 @@
         <v>0.5523456871369381</v>
       </c>
       <c r="F145">
-        <v>0.54</v>
+        <v>0.60194803604132718</v>
       </c>
       <c r="G145">
-        <v>-0.01</v>
+        <v>4.9602348904389082E-2</v>
       </c>
       <c r="H145">
-        <v>-1.5</v>
+        <v>8.9803089006634398</v>
       </c>
       <c r="I145">
         <v>0.59747479634208156</v>
@@ -8170,7 +8191,7 @@
         <v>18.44753920714161</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>144</v>
       </c>
@@ -8187,13 +8208,13 @@
         <v>0.53080743458030943</v>
       </c>
       <c r="F146">
-        <v>0.53</v>
+        <v>0.56551661228074002</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>3.4709177700430582E-2</v>
       </c>
       <c r="H146">
-        <v>-0.73</v>
+        <v>6.5389396303150678</v>
       </c>
       <c r="I146">
         <v>0.57181070706802428</v>
@@ -8223,7 +8244,7 @@
         <v>13.581115714444371</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>145</v>
       </c>
@@ -8240,13 +8261,13 @@
         <v>0.58031479755832416</v>
       </c>
       <c r="F147">
-        <v>0.55000000000000004</v>
+        <v>0.56101750192093691</v>
       </c>
       <c r="G147">
-        <v>-0.03</v>
+        <v>-1.929729563738725E-2</v>
       </c>
       <c r="H147">
-        <v>-5.4</v>
+        <v>-3.3253151080380272</v>
       </c>
       <c r="I147">
         <v>0.57235664329416691</v>
@@ -8276,7 +8297,7 @@
         <v>5.264623313635088</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>146</v>
       </c>
@@ -8293,13 +8314,13 @@
         <v>0.55548974712391563</v>
       </c>
       <c r="F148">
-        <v>0.54</v>
+        <v>0.59523453254760461</v>
       </c>
       <c r="G148">
-        <v>-0.02</v>
+        <v>3.9744785423688977E-2</v>
       </c>
       <c r="H148">
-        <v>-3.17</v>
+        <v>7.1549089122652916</v>
       </c>
       <c r="I148">
         <v>0.60267345477051637</v>
@@ -8329,7 +8350,7 @@
         <v>6.6741846734087966</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>147</v>
       </c>
@@ -8346,13 +8367,13 @@
         <v>0.59227138880381147</v>
       </c>
       <c r="F149">
-        <v>0.56999999999999995</v>
+        <v>0.60121350765499182</v>
       </c>
       <c r="G149">
-        <v>-0.02</v>
+        <v>8.9421188511803473E-3</v>
       </c>
       <c r="H149">
-        <v>-3.07</v>
+        <v>1.5098009156309939</v>
       </c>
       <c r="I149">
         <v>0.63588110837179646</v>
@@ -8382,7 +8403,7 @@
         <v>5.6759208727766843</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>148</v>
       </c>
@@ -8399,13 +8420,13 @@
         <v>0.56887439540844342</v>
       </c>
       <c r="F150">
-        <v>0.55000000000000004</v>
+        <v>0.57419415960016962</v>
       </c>
       <c r="G150">
-        <v>-0.02</v>
+        <v>5.3197641917261951E-3</v>
       </c>
       <c r="H150">
-        <v>-2.68</v>
+        <v>0.93513862368628542</v>
       </c>
       <c r="I150">
         <v>0.55560459059908418</v>
@@ -8435,7 +8456,7 @@
         <v>4.5274962049617162</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>149</v>
       </c>
@@ -8452,13 +8473,13 @@
         <v>0.5642386003214972</v>
       </c>
       <c r="F151">
-        <v>0.56000000000000005</v>
+        <v>0.55839799850112648</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>-5.8406018203707166E-3</v>
       </c>
       <c r="H151">
-        <v>-0.42</v>
+        <v>-1.03512978676801</v>
       </c>
       <c r="I151">
         <v>0.59260106221956121</v>
@@ -8488,7 +8509,7 @@
         <v>10.19975002760709</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>150</v>
       </c>
@@ -8505,13 +8526,13 @@
         <v>0.70195116543910907</v>
       </c>
       <c r="F152">
-        <v>0.67</v>
+        <v>0.69255346697028752</v>
       </c>
       <c r="G152">
-        <v>-0.03</v>
+        <v>-9.397698468821547E-3</v>
       </c>
       <c r="H152">
-        <v>-3.88</v>
+        <v>-1.3387966188421061</v>
       </c>
       <c r="I152">
         <v>0.67443411796672237</v>
@@ -8541,7 +8562,7 @@
         <v>0.98668228666893165</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>151</v>
       </c>
@@ -8558,13 +8579,13 @@
         <v>0.56905940971368452</v>
       </c>
       <c r="F153">
-        <v>0.57999999999999996</v>
+        <v>0.6134027730541558</v>
       </c>
       <c r="G153">
-        <v>0.01</v>
+        <v>4.4343363340471287E-2</v>
       </c>
       <c r="H153">
-        <v>2.38</v>
+        <v>7.7923961160368336</v>
       </c>
       <c r="I153">
         <v>0.62059650988447745</v>
@@ -8594,7 +8615,7 @@
         <v>16.076023709806812</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>152</v>
       </c>
@@ -8611,13 +8632,13 @@
         <v>0.53362672620906859</v>
       </c>
       <c r="F154">
-        <v>0.51</v>
+        <v>0.53260597589485947</v>
       </c>
       <c r="G154">
-        <v>-0.03</v>
+        <v>-1.0207503142091181E-3</v>
       </c>
       <c r="H154">
-        <v>-4.72</v>
+        <v>-0.19128545555816109</v>
       </c>
       <c r="I154">
         <v>0.5082309121473314</v>
@@ -8647,7 +8668,7 @@
         <v>20.823455300195409</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>153</v>
       </c>
@@ -8664,13 +8685,13 @@
         <v>0.63299867663035769</v>
       </c>
       <c r="F155">
-        <v>0.64</v>
+        <v>0.65359278713094926</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>2.059411050059157E-2</v>
       </c>
       <c r="H155">
-        <v>0.6</v>
+        <v>3.25342078283958</v>
       </c>
       <c r="I155">
         <v>0.62565838737347979</v>
@@ -8700,7 +8721,7 @@
         <v>7.5844282015789899</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -8717,13 +8738,13 @@
         <v>0.55855588167105052</v>
       </c>
       <c r="F156">
-        <v>0.52</v>
+        <v>0.58099881965471578</v>
       </c>
       <c r="G156">
-        <v>-0.04</v>
+        <v>2.244293798366526E-2</v>
       </c>
       <c r="H156">
-        <v>-7.2</v>
+        <v>4.0180291211905166</v>
       </c>
       <c r="I156">
         <v>0.57465263774325015</v>
@@ -8753,7 +8774,7 @@
         <v>-7.9229895766183436</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -8770,13 +8791,13 @@
         <v>0.62699232593362964</v>
       </c>
       <c r="F157">
-        <v>0.6</v>
+        <v>0.64958169852386738</v>
       </c>
       <c r="G157">
-        <v>-0.02</v>
+        <v>2.2589372590237741E-2</v>
       </c>
       <c r="H157">
-        <v>-3.82</v>
+        <v>3.6028148441212262</v>
       </c>
       <c r="I157">
         <v>0.62206546995145851</v>
@@ -8806,7 +8827,7 @@
         <v>9.5462928340720019</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -8823,13 +8844,13 @@
         <v>0.55108626739331257</v>
       </c>
       <c r="F158">
-        <v>0.56999999999999995</v>
+        <v>0.60895991101257363</v>
       </c>
       <c r="G158">
-        <v>0.02</v>
+        <v>5.7873643619261061E-2</v>
       </c>
       <c r="H158">
-        <v>3.25</v>
+        <v>10.50173939064179</v>
       </c>
       <c r="I158">
         <v>0.61192805175688747</v>
@@ -8859,7 +8880,7 @@
         <v>19.683969298285021</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -8876,13 +8897,13 @@
         <v>0.62661999932509582</v>
       </c>
       <c r="F159">
-        <v>0.62</v>
+        <v>0.6395705228409484</v>
       </c>
       <c r="G159">
-        <v>-0.01</v>
+        <v>1.2950523515852569E-2</v>
       </c>
       <c r="H159">
-        <v>-1.58</v>
+        <v>2.0667268088795439</v>
       </c>
       <c r="I159">
         <v>0.61639375297763932</v>
@@ -8912,7 +8933,7 @@
         <v>10.90976593420571</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -8929,13 +8950,13 @@
         <v>0.66473085997553616</v>
       </c>
       <c r="F160">
-        <v>0.66</v>
+        <v>0.66915805863014799</v>
       </c>
       <c r="G160">
-        <v>-0.01</v>
+        <v>4.4271986546118303E-3</v>
       </c>
       <c r="H160">
-        <v>-1.1499999999999999</v>
+        <v>0.66601370888283462</v>
       </c>
       <c r="I160">
         <v>0.63064543398852013</v>
@@ -8965,7 +8986,7 @@
         <v>7.7004558626989263</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -8982,13 +9003,13 @@
         <v>0.64450988851979862</v>
       </c>
       <c r="F161">
-        <v>0.64</v>
+        <v>0.63520210271295652</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>-9.307785806842106E-3</v>
       </c>
       <c r="H161">
-        <v>-0.43</v>
+        <v>-1.444164934104992</v>
       </c>
       <c r="I161">
         <v>0.61718275922631505</v>
@@ -9018,7 +9039,7 @@
         <v>9.2377250907289969</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -9035,13 +9056,13 @@
         <v>0.60844187378124759</v>
       </c>
       <c r="F162">
-        <v>0.6</v>
+        <v>0.61304182966603626</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>4.5999558847886757E-3</v>
       </c>
       <c r="H162">
-        <v>-0.73</v>
+        <v>0.75602224025141518</v>
       </c>
       <c r="I162">
         <v>0.58177291527456965</v>
@@ -9071,7 +9092,7 @@
         <v>-5.0236118387423137</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -9088,13 +9109,13 @@
         <v>0.6141576008922276</v>
       </c>
       <c r="F163">
-        <v>0.61</v>
+        <v>0.61084181336490739</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>-3.315787527320202E-3</v>
       </c>
       <c r="H163">
-        <v>-0.47</v>
+        <v>-0.539891962991769</v>
       </c>
       <c r="I163">
         <v>0.61792761593539591</v>
@@ -9124,7 +9145,7 @@
         <v>7.8191288072172638</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>7</v>
       </c>
@@ -9135,13 +9156,13 @@
         <v>95.670180412168165</v>
       </c>
       <c r="F164">
-        <v>92.87</v>
+        <v>96.574919360656651</v>
       </c>
       <c r="G164">
-        <v>-2.8</v>
+        <v>0.90473894848850223</v>
       </c>
       <c r="H164">
-        <v>-495.27</v>
+        <v>156.5030244324883</v>
       </c>
       <c r="I164">
         <v>97.979008671273789</v>
@@ -9171,7 +9192,7 @@
         <v>1189.4700930619761</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>8</v>
       </c>
@@ -9182,13 +9203,13 @@
         <v>0.59055666921091454</v>
       </c>
       <c r="F165">
-        <v>0.56999999999999995</v>
+        <v>0.5961414775349172</v>
       </c>
       <c r="G165">
-        <v>-0.02</v>
+        <v>5.5848083240031014E-3</v>
       </c>
       <c r="H165">
-        <v>-3.06</v>
+        <v>0.96606805205239654</v>
       </c>
       <c r="I165">
         <v>0.60480869550169003</v>
